--- a/biology/Médecine/Personne_de_confiance/Personne_de_confiance.xlsx
+++ b/biology/Médecine/Personne_de_confiance/Personne_de_confiance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La personne de confiance est une notion de droit français de la santé[1]. Elle a été créée initialement pour favoriser le consentement des personnes hors d'état de s'exprimer, suivant ainsi l'avis no 58, 12 juin 1998 du CCNE, le Comité consultatif national d'éthique.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La personne de confiance est une notion de droit français de la santé. Elle a été créée initialement pour favoriser le consentement des personnes hors d'état de s'exprimer, suivant ainsi l'avis no 58, 12 juin 1998 du CCNE, le Comité consultatif national d'éthique.
 Ce rôle a été étendu dans la loi à deux missions :
 accompagner à sa demande le patient dans des démarches de santé, y compris les consultations médicales, dans le but de l'aider à mieux comprendre ce qui s'est passé lors de ces démarches ;
-transmettre les volontés du patient qui serait devenu hors d'état de s'exprimer (en raison de coma ou de démence par exemple) à l'équipe médicale par le biais des directives anticipées[2].
-Cette personne de confiance ne peut décider à la place du malade ou avoir accès aux informations le concernant (dossier médical), sauf exceptions précisées dans la loi[3]. Conformément à la loi, la personne de confiance n’a pas accès au dossier médical. Pour qu’elle puisse disposer des informations de santé du patient, elle doit, au préalable, obtenir un mandat complémentaire auprès de lui.
+transmettre les volontés du patient qui serait devenu hors d'état de s'exprimer (en raison de coma ou de démence par exemple) à l'équipe médicale par le biais des directives anticipées.
+Cette personne de confiance ne peut décider à la place du malade ou avoir accès aux informations le concernant (dossier médical), sauf exceptions précisées dans la loi. Conformément à la loi, la personne de confiance n’a pas accès au dossier médical. Pour qu’elle puisse disposer des informations de santé du patient, elle doit, au préalable, obtenir un mandat complémentaire auprès de lui.
 </t>
         </is>
       </c>
@@ -515,7 +527,9 @@
           <t>À l'international</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Réglementations de la personne de confiance dans d'autres pays :
 Allemagne : Vorsorgevollmacht (de)
